--- a/Repositorio/Proyecto/DocumentosPropios/GrpL_MGI_181018_MatrizGestionInteresados_v1.xlsx
+++ b/Repositorio/Proyecto/DocumentosPropios/GrpL_MGI_181018_MatrizGestionInteresados_v1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sergy6rey\Documents\GitHub\PracticaXesPro_GrupoL\Repositorio\Proyecto\DocumentosPropios\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ROY\Documents\GitHub\PracticaXesPro_GrupoL\Repositorio\Proyecto\DocumentosPropios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{50FCF4C7-29B3-4E6A-B9CE-A3207D87556E}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{BF68FF9D-7597-4795-A898-0C2CA8058738}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -260,9 +260,6 @@
     <t>Comunicación mediante correo electrónico.</t>
   </si>
   <si>
-    <t>Reuniones iniciales con los analistas de GEISOFT. Reunión semanal con el director del proyecto. Comunicación de otras cuestiones mediante e-mail o llamada telefónica.</t>
-  </si>
-  <si>
     <t>Reuniones iniciales. Comunicación posterior mediante correo electrónico.</t>
   </si>
   <si>
@@ -314,6 +311,9 @@
   </si>
   <si>
     <t>Comunicación mediante correo electrónico y llamadas telefónicas.</t>
+  </si>
+  <si>
+    <t>Reuniones iniciales con los analistas de GEISOFT. Reunión mensual con el director del proyecto. Comunicación de otras cuestiones mediante e-mail o llamada telefónica.</t>
   </si>
 </sst>
 </file>
@@ -985,19 +985,19 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="22.21875" customWidth="1"/>
-    <col min="3" max="3" width="16.6640625" customWidth="1"/>
-    <col min="4" max="4" width="33.33203125" customWidth="1"/>
-    <col min="5" max="5" width="22.21875" customWidth="1"/>
+    <col min="1" max="2" width="22.28515625" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" customWidth="1"/>
+    <col min="4" max="4" width="33.28515625" customWidth="1"/>
+    <col min="5" max="5" width="22.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="52.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="52.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1015,7 +1015,7 @@
       </c>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -1032,7 +1032,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -1047,7 +1047,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -1062,7 +1062,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
@@ -1077,7 +1077,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
@@ -1092,7 +1092,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
@@ -1107,7 +1107,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
@@ -1118,13 +1118,13 @@
         <v>66</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E8" s="11" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
@@ -1141,7 +1141,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
@@ -1158,7 +1158,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>13</v>
       </c>
@@ -1169,13 +1169,13 @@
         <v>66</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="E11" s="9" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>14</v>
       </c>
@@ -1192,7 +1192,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="50.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="50.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>15</v>
       </c>
@@ -1203,13 +1203,13 @@
         <v>67</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E13" s="8" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>16</v>
       </c>
@@ -1226,7 +1226,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>17</v>
       </c>
@@ -1237,13 +1237,13 @@
         <v>67</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>18</v>
       </c>
@@ -1258,7 +1258,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>19</v>
       </c>
@@ -1273,7 +1273,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>20</v>
       </c>
@@ -1288,7 +1288,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>21</v>
       </c>
@@ -1299,13 +1299,13 @@
         <v>64</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>22</v>
       </c>
@@ -1322,7 +1322,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>23</v>
       </c>
@@ -1333,13 +1333,13 @@
         <v>65</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" ht="46.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>24</v>
       </c>
@@ -1354,7 +1354,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>25</v>
       </c>
@@ -1365,13 +1365,13 @@
         <v>68</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E23" s="8" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>26</v>
       </c>
@@ -1382,13 +1382,13 @@
         <v>64</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E24" s="6" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>27</v>
       </c>
@@ -1399,13 +1399,13 @@
         <v>67</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E25" s="10" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>28</v>
       </c>
@@ -1416,13 +1416,13 @@
         <v>69</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E26" s="10" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>29</v>
       </c>
@@ -1433,13 +1433,13 @@
         <v>68</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E27" s="10" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>30</v>
       </c>
@@ -1456,7 +1456,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>31</v>
       </c>
@@ -1467,13 +1467,13 @@
         <v>68</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E29" s="8" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>32</v>
       </c>
@@ -1484,13 +1484,13 @@
         <v>67</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>33</v>
       </c>
@@ -1507,7 +1507,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>34</v>
       </c>
@@ -1518,13 +1518,13 @@
         <v>67</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E32" s="10" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>35</v>
       </c>
@@ -1535,7 +1535,7 @@
         <v>69</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E33" s="10" t="s">
         <v>68</v>

--- a/Repositorio/Proyecto/DocumentosPropios/GrpL_MGI_181018_MatrizGestionInteresados_v1.xlsx
+++ b/Repositorio/Proyecto/DocumentosPropios/GrpL_MGI_181018_MatrizGestionInteresados_v1.xlsx
@@ -1,31 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
-  <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ROY\Documents\GitHub\PracticaXesPro_GrupoL\Repositorio\Proyecto\DocumentosPropios\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\German\Documents\USC\Cuarto\XesPro\Proxecto\7\Vainas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{BF68FF9D-7597-4795-A898-0C2CA8058738}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{310A51C7-3C1F-4860-A291-983575759F1B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179021" iterateDelta="1E-4"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr/>
-    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="156" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="104">
   <si>
     <t>Nombre</t>
   </si>
@@ -248,9 +246,6 @@
     <t>Nivel de Comunicación (1-5)</t>
   </si>
   <si>
-    <t xml:space="preserve">Reuniones semanales y comunicación diaria con el resto del equipo de la empresa.  </t>
-  </si>
-  <si>
     <t>Actualización mensual sobre el estado del proyecto, con el director del proyecto y el CEO de GEISOFT.</t>
   </si>
   <si>
@@ -260,13 +255,49 @@
     <t>Comunicación mediante correo electrónico.</t>
   </si>
   <si>
-    <t>Reuniones iniciales. Comunicación posterior mediante correo electrónico.</t>
-  </si>
-  <si>
     <t>Comunicación informal, no definida.</t>
   </si>
   <si>
     <t>Realización de entrevistas si fuesen requeridas, comunicación mediante correo electrónico.</t>
+  </si>
+  <si>
+    <t>Comunicación mediante los cauces correspondientes. Reuniones, si fuesen necesarias.</t>
+  </si>
+  <si>
+    <t>Comunicación mediante los cauces correspondientes.</t>
+  </si>
+  <si>
+    <t>Actualización mensual sobre el estado del proyecto, con el director del mismo.</t>
+  </si>
+  <si>
+    <t>Comunicación mediante correo electrónico y reuniones.</t>
+  </si>
+  <si>
+    <t>Comunicación mediante correo electrónico, llamadas telefónicas y reuniones</t>
+  </si>
+  <si>
+    <t>Comunicación mediante correo electrónico y llamadas telefónicas.</t>
+  </si>
+  <si>
+    <t>Métodos y tecnologías</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reuniones semanales // comunicación diaria con el resto del equipo de la empresa.  </t>
+  </si>
+  <si>
+    <t>Reunión presencial</t>
+  </si>
+  <si>
+    <t>Correo electrónico</t>
+  </si>
+  <si>
+    <t>Reuniones iniciales con los analistas de GEISOFT // Reunión mensual con el director del proyecto // Comunicación de otras cuestiones mediante e-mail o llamada telefónica.</t>
+  </si>
+  <si>
+    <t>Reunión presencial // Reunión presencial // Correo electrónico y llamadas telefónicas</t>
+  </si>
+  <si>
+    <t>Herramientas de feedback del sistema // Anuncios en prensa</t>
   </si>
   <si>
     <r>
@@ -291,35 +322,56 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> a través del sistema. Publicitación del proyecto mediante anuncios.</t>
+      <t xml:space="preserve"> a través del sistema // Publicitación del proyecto mediante anuncios.</t>
     </r>
   </si>
   <si>
-    <t>Comunicación mediante los cauces correspondientes. Reuniones, si fuesen necesarias.</t>
-  </si>
-  <si>
-    <t>Comunicación mediante los cauces correspondientes.</t>
-  </si>
-  <si>
-    <t>Actualización mensual sobre el estado del proyecto, con el director del mismo.</t>
-  </si>
-  <si>
-    <t>Comunicación mediante correo electrónico y reuniones.</t>
-  </si>
-  <si>
-    <t>Comunicación mediante correo electrónico, llamadas telefónicas y reuniones</t>
-  </si>
-  <si>
-    <t>Comunicación mediante correo electrónico y llamadas telefónicas.</t>
-  </si>
-  <si>
-    <t>Reuniones iniciales con los analistas de GEISOFT. Reunión mensual con el director del proyecto. Comunicación de otras cuestiones mediante e-mail o llamada telefónica.</t>
+    <t>Correo electrónico y llamadas telefónicas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Comunicación mediante correo electrónico y llamadas.</t>
+  </si>
+  <si>
+    <t>Cauces legales establecidos.</t>
+  </si>
+  <si>
+    <t>Comunicación mediante correo electrónico y llamadas.</t>
+  </si>
+  <si>
+    <t>Correo electrónico, Skype</t>
+  </si>
+  <si>
+    <t>Skype, entrevistas, correo electrónico</t>
+  </si>
+  <si>
+    <t>Cauces legales establecidos, reuniones presenciales.</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Correo electrónico, llamadas telefónicas.</t>
+  </si>
+  <si>
+    <t>Correo electrónico.</t>
+  </si>
+  <si>
+    <t>Correo electrónico, llamadas telefónicas, reuniones presenciales.</t>
+  </si>
+  <si>
+    <t>Correo electrónico, reuniones presenciales.</t>
+  </si>
+  <si>
+    <t>Reunión presencial // Slack, Skype, Telegram, Whatsapp y Comunicación verbal</t>
+  </si>
+  <si>
+    <t>Reunión presencial y WhatsApp</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -423,19 +475,19 @@
   </fills>
   <borders count="5">
     <border>
-      <start/>
-      <end/>
+      <left/>
+      <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <start style="thin">
+      <left style="thin">
         <color auto="1"/>
-      </start>
-      <end style="thin">
+      </left>
+      <right style="thin">
         <color auto="1"/>
-      </end>
+      </right>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -445,12 +497,12 @@
       <diagonal/>
     </border>
     <border>
-      <start style="thin">
+      <left style="thin">
         <color auto="1"/>
-      </start>
-      <end style="thin">
+      </left>
+      <right style="thin">
         <color auto="1"/>
-      </end>
+      </right>
       <top/>
       <bottom style="thin">
         <color auto="1"/>
@@ -458,12 +510,12 @@
       <diagonal/>
     </border>
     <border>
-      <start style="thin">
+      <left style="thin">
         <color auto="1"/>
-      </start>
-      <end style="thin">
+      </left>
+      <right style="thin">
         <color auto="1"/>
-      </end>
+      </right>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -471,12 +523,12 @@
       <diagonal/>
     </border>
     <border>
-      <start style="thin">
+      <left style="thin">
         <color auto="1"/>
-      </start>
-      <end style="thin">
+      </left>
+      <right style="thin">
         <color auto="1"/>
-      </end>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -488,12 +540,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -687,7 +736,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -840,25 +889,25 @@
         </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
-            <a:gs pos="0%">
+            <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110%"/>
-                <a:satMod val="105%"/>
-                <a:tint val="67%"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50%">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105%"/>
-                <a:satMod val="103%"/>
-                <a:tint val="73%"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="100%">
+            <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105%"/>
-                <a:satMod val="109%"/>
-                <a:tint val="81%"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -866,25 +915,25 @@
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
-            <a:gs pos="0%">
+            <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103%"/>
-                <a:lumMod val="102%"/>
-                <a:tint val="94%"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50%">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110%"/>
-                <a:lumMod val="100%"/>
-                <a:shade val="100%"/>
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="100%">
+            <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99%"/>
-                <a:satMod val="120%"/>
-                <a:shade val="78%"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -897,21 +946,21 @@
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800%"/>
+          <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800%"/>
+          <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800%"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
@@ -925,7 +974,7 @@
           <a:effectLst>
             <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63%"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
@@ -937,32 +986,32 @@
         </a:solidFill>
         <a:solidFill>
           <a:schemeClr val="phClr">
-            <a:tint val="95%"/>
-            <a:satMod val="170%"/>
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
-            <a:gs pos="0%">
+            <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93%"/>
-                <a:satMod val="150%"/>
-                <a:shade val="98%"/>
-                <a:lumMod val="102%"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50%">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="98%"/>
-                <a:satMod val="130%"/>
-                <a:shade val="90%"/>
-                <a:lumMod val="103%"/>
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="100%">
+            <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63%"/>
-                <a:satMod val="120%"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -982,22 +1031,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="22.28515625" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" customWidth="1"/>
-    <col min="4" max="4" width="33.28515625" customWidth="1"/>
-    <col min="5" max="5" width="22.28515625" customWidth="1"/>
+    <col min="1" max="2" width="22.33203125" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" customWidth="1"/>
+    <col min="4" max="4" width="17.88671875" customWidth="1"/>
+    <col min="5" max="5" width="25.33203125" customWidth="1"/>
+    <col min="6" max="6" width="23.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="52.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="52.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1008,544 +1058,627 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F1" s="2"/>
-    </row>
-    <row r="2" spans="1:6" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="F1" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+    </row>
+    <row r="4" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+    </row>
+    <row r="5" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+    </row>
+    <row r="6" spans="1:6" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+    </row>
+    <row r="7" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+    </row>
+    <row r="8" spans="1:6" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="65.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="89.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="F10" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="108.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="66" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+    </row>
+    <row r="17" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+    </row>
+    <row r="18" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+    </row>
+    <row r="19" spans="1:6" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="8" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" s="6" t="s">
+      <c r="D19" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="D3" s="15"/>
-      <c r="E3" s="11" t="s">
+      <c r="E19" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+    </row>
+    <row r="23" spans="1:6" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24" s="8" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" s="6" t="s">
+      <c r="D24" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="11" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="D5" s="15"/>
-      <c r="E5" s="11" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="D6" s="15"/>
-      <c r="E6" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="D7" s="14"/>
-      <c r="E7" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="D8" s="4" t="s">
+      <c r="E24" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="E26" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="E8" s="11" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="D11" s="4" t="s">
+      <c r="F26" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F31" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="E11" s="9" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C12" s="7" t="s">
+    </row>
+    <row r="32" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C32" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="D12" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="E12" s="8" t="s">
+      <c r="D32" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C33" s="7" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="50.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="D14" s="4" t="s">
+      <c r="D33" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="E33" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="D16" s="15"/>
-      <c r="E16" s="7" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="D17" s="15"/>
-      <c r="E17" s="7" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="D18" s="14"/>
-      <c r="E18" s="7" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="E20" s="10" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="D21" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="46.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="D22" s="14"/>
-      <c r="E22" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="E25" s="10" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="E26" s="10" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="E27" s="10" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="E28" s="10" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="E29" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="E32" s="10" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="E33" s="10" t="s">
-        <v>68</v>
+      <c r="F33" s="3" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="D2:D7"/>
-    <mergeCell ref="D15:D18"/>
+  <mergeCells count="6">
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="E2:E7"/>
+    <mergeCell ref="E15:E18"/>
+    <mergeCell ref="F2:F7"/>
+    <mergeCell ref="F15:F18"/>
+    <mergeCell ref="F21:F22"/>
   </mergeCells>
   <conditionalFormatting sqref="C2">
     <cfRule type="cellIs" dxfId="12" priority="23" operator="equal">
@@ -1637,7 +1770,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2">
+  <conditionalFormatting sqref="D2">
     <cfRule type="cellIs" dxfId="6" priority="13" operator="equal">
       <formula>"ALTO"</formula>
     </cfRule>
@@ -1652,7 +1785,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E8">
+  <conditionalFormatting sqref="D8">
     <cfRule type="cellIs" dxfId="5" priority="11" operator="equal">
       <formula>"ALTO"</formula>
     </cfRule>
@@ -1667,7 +1800,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3">
+  <conditionalFormatting sqref="D3">
     <cfRule type="cellIs" dxfId="4" priority="9" operator="equal">
       <formula>"ALTO"</formula>
     </cfRule>
@@ -1682,7 +1815,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
+  <conditionalFormatting sqref="D4">
     <cfRule type="cellIs" dxfId="3" priority="7" operator="equal">
       <formula>"ALTO"</formula>
     </cfRule>
@@ -1697,7 +1830,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E5">
+  <conditionalFormatting sqref="D5">
     <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
       <formula>"ALTO"</formula>
     </cfRule>
@@ -1712,7 +1845,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E10">
+  <conditionalFormatting sqref="D10">
     <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>"ALTO"</formula>
     </cfRule>
@@ -1727,7 +1860,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E11">
+  <conditionalFormatting sqref="D11">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"ALTO"</formula>
     </cfRule>

--- a/Repositorio/Proyecto/DocumentosPropios/GrpL_MGI_181018_MatrizGestionInteresados_v1.xlsx
+++ b/Repositorio/Proyecto/DocumentosPropios/GrpL_MGI_181018_MatrizGestionInteresados_v1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\German\Documents\USC\Cuarto\XesPro\Proxecto\7\Vainas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sergy6rey\Documents\GitHub\PracticaXesPro_GrupoL\Repositorio\Proyecto\DocumentosPropios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{310A51C7-3C1F-4860-A291-983575759F1B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E85CF11F-0156-4ADA-93C3-A9FDE4C86B14}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="108">
   <si>
     <t>Nombre</t>
   </si>
@@ -145,9 +145,6 @@
   </si>
   <si>
     <t>Miembro de equipo de proyecto</t>
-  </si>
-  <si>
-    <t>Analista</t>
   </si>
   <si>
     <t>Patrocinador y máximo dirigente</t>
@@ -366,6 +363,21 @@
   </si>
   <si>
     <t>Reunión presencial y WhatsApp</t>
+  </si>
+  <si>
+    <t>Abogado GEI SOFT</t>
+  </si>
+  <si>
+    <t>Abogado EjoSL</t>
+  </si>
+  <si>
+    <t>Representante legal de GEI SOFT</t>
+  </si>
+  <si>
+    <t>Representante legal de EjoSL</t>
+  </si>
+  <si>
+    <t>Comunicación con el equipo.</t>
   </si>
 </sst>
 </file>
@@ -591,7 +603,27 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Texto explicativo" xfId="2" builtinId="53"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="15">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1032,10 +1064,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F7"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1058,13 +1090,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
@@ -1075,16 +1107,16 @@
         <v>36</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1095,10 +1127,10 @@
         <v>37</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E3" s="14"/>
       <c r="F3" s="14"/>
@@ -1111,10 +1143,10 @@
         <v>37</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E4" s="14"/>
       <c r="F4" s="14"/>
@@ -1127,10 +1159,10 @@
         <v>37</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E5" s="14"/>
       <c r="F5" s="14"/>
@@ -1140,13 +1172,13 @@
         <v>8</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>38</v>
+        <v>107</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E6" s="14"/>
       <c r="F6" s="14"/>
@@ -1156,13 +1188,13 @@
         <v>9</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>38</v>
+        <v>107</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E7" s="13"/>
       <c r="F7" s="13"/>
@@ -1172,19 +1204,19 @@
         <v>10</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="65.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
@@ -1192,19 +1224,19 @@
         <v>11</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="89.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -1212,19 +1244,19 @@
         <v>12</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="108.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -1232,19 +1264,19 @@
         <v>13</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E11" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F11" s="3" t="s">
         <v>86</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.3">
@@ -1252,19 +1284,19 @@
         <v>14</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="66" customHeight="1" x14ac:dyDescent="0.3">
@@ -1272,19 +1304,19 @@
         <v>15</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -1292,19 +1324,19 @@
         <v>16</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -1312,19 +1344,19 @@
         <v>17</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -1332,13 +1364,13 @@
         <v>18</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E16" s="14"/>
       <c r="F16" s="14"/>
@@ -1348,13 +1380,13 @@
         <v>19</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E17" s="14"/>
       <c r="F17" s="14"/>
@@ -1364,13 +1396,13 @@
         <v>20</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E18" s="13"/>
       <c r="F18" s="13"/>
@@ -1380,19 +1412,19 @@
         <v>21</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C19" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D19" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="D19" s="5" t="s">
-        <v>65</v>
-      </c>
       <c r="E19" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -1400,19 +1432,19 @@
         <v>22</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C20" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D20" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="D20" s="9" t="s">
-        <v>68</v>
-      </c>
       <c r="E20" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
@@ -1420,19 +1452,19 @@
         <v>23</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E21" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="F21" s="12" t="s">
         <v>93</v>
-      </c>
-      <c r="F21" s="12" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -1443,10 +1475,10 @@
         <v>24</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E22" s="13"/>
       <c r="F22" s="13"/>
@@ -1456,19 +1488,19 @@
         <v>25</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C23" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D23" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="D23" s="7" t="s">
-        <v>69</v>
-      </c>
       <c r="E23" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -1476,19 +1508,19 @@
         <v>26</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C24" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D24" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="D24" s="5" t="s">
-        <v>65</v>
-      </c>
       <c r="E24" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1496,19 +1528,19 @@
         <v>27</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C25" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D25" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="D25" s="9" t="s">
-        <v>68</v>
-      </c>
       <c r="E25" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -1516,19 +1548,19 @@
         <v>28</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -1536,19 +1568,19 @@
         <v>29</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1556,19 +1588,19 @@
         <v>30</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -1576,19 +1608,19 @@
         <v>31</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C29" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D29" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="D29" s="7" t="s">
-        <v>69</v>
-      </c>
       <c r="E29" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -1596,19 +1628,19 @@
         <v>32</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -1616,19 +1648,19 @@
         <v>33</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -1636,19 +1668,19 @@
         <v>34</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C32" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D32" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="D32" s="9" t="s">
-        <v>68</v>
-      </c>
       <c r="E32" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -1656,19 +1688,59 @@
         <v>35</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -1681,7 +1753,52 @@
     <mergeCell ref="F21:F22"/>
   </mergeCells>
   <conditionalFormatting sqref="C2">
-    <cfRule type="cellIs" dxfId="12" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="27" operator="equal">
+      <formula>"ALTO"</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C8">
+    <cfRule type="cellIs" dxfId="13" priority="29" operator="equal">
+      <formula>"ALTO"</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="30">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C10">
+    <cfRule type="cellIs" dxfId="12" priority="25" operator="equal">
+      <formula>"ALTO"</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C11">
+    <cfRule type="cellIs" dxfId="11" priority="23" operator="equal">
       <formula>"ALTO"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="24">
@@ -1695,22 +1812,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C8">
-    <cfRule type="cellIs" dxfId="11" priority="25" operator="equal">
-      <formula>"ALTO"</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="26">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C10">
+  <conditionalFormatting sqref="C19">
     <cfRule type="cellIs" dxfId="10" priority="21" operator="equal">
       <formula>"ALTO"</formula>
     </cfRule>
@@ -1725,7 +1827,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C11">
+  <conditionalFormatting sqref="C24">
     <cfRule type="cellIs" dxfId="9" priority="19" operator="equal">
       <formula>"ALTO"</formula>
     </cfRule>
@@ -1740,7 +1842,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C19">
+  <conditionalFormatting sqref="D2">
     <cfRule type="cellIs" dxfId="8" priority="17" operator="equal">
       <formula>"ALTO"</formula>
     </cfRule>
@@ -1755,7 +1857,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C24">
+  <conditionalFormatting sqref="D8">
     <cfRule type="cellIs" dxfId="7" priority="15" operator="equal">
       <formula>"ALTO"</formula>
     </cfRule>
@@ -1770,7 +1872,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2">
+  <conditionalFormatting sqref="D3">
     <cfRule type="cellIs" dxfId="6" priority="13" operator="equal">
       <formula>"ALTO"</formula>
     </cfRule>
@@ -1785,7 +1887,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D8">
+  <conditionalFormatting sqref="D4">
     <cfRule type="cellIs" dxfId="5" priority="11" operator="equal">
       <formula>"ALTO"</formula>
     </cfRule>
@@ -1800,7 +1902,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D3">
+  <conditionalFormatting sqref="D5">
     <cfRule type="cellIs" dxfId="4" priority="9" operator="equal">
       <formula>"ALTO"</formula>
     </cfRule>
@@ -1815,7 +1917,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D4">
+  <conditionalFormatting sqref="D10">
     <cfRule type="cellIs" dxfId="3" priority="7" operator="equal">
       <formula>"ALTO"</formula>
     </cfRule>
@@ -1830,7 +1932,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D5">
+  <conditionalFormatting sqref="D11">
     <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
       <formula>"ALTO"</formula>
     </cfRule>
@@ -1845,7 +1947,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D10">
+  <conditionalFormatting sqref="D34">
     <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>"ALTO"</formula>
     </cfRule>
@@ -1860,7 +1962,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D11">
+  <conditionalFormatting sqref="D35">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"ALTO"</formula>
     </cfRule>
